--- a/proximity_2019-06-01/location table.xlsx
+++ b/proximity_2019-06-01/location table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robert/Desktop/DSC383W/Rhythm Badge Analysis File/proximity_2019-06-01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robert/Desktop/DSC383W/Capstone-URMC/proximity_2019-06-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831D7F19-BB1D-5A43-A24A-293F94836460}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F0123-11DF-CD44-ACBC-0F413EEF9FB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="125">
   <si>
     <t>key</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>Cafe</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1265,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">

--- a/proximity_2019-06-01/location table.xlsx
+++ b/proximity_2019-06-01/location table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Robert/Desktop/DSC383W/Capstone-URMC/proximity_2019-06-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F0123-11DF-CD44-ACBC-0F413EEF9FB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E568974D-7D8D-134D-9A6F-9D3F277FEEB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1680,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="3">
-        <v>1216</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
